--- a/data/new_excel_file_2.xlsx
+++ b/data/new_excel_file_2.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="user_details" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="first_sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="weight" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="D1:F5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,6 +436,26 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 3</t>
+        </is>
+      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
@@ -445,9 +466,17 @@
           <t>Marks</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="D2" s="1" t="n">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="inlineStr">
@@ -458,9 +487,13 @@
       <c r="F2" t="n">
         <v>179</v>
       </c>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="D3" s="1" t="n">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
@@ -471,9 +504,13 @@
       <c r="F3" t="n">
         <v>181</v>
       </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="D4" s="1" t="n">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
@@ -484,9 +521,13 @@
       <c r="F4" t="n">
         <v>170</v>
       </c>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="D5" s="1" t="n">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
@@ -497,6 +538,37 @@
       <c r="F5" t="n">
         <v>167</v>
       </c>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Alon</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alon</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>77</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -572,4 +644,105 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Marks</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Aditya</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sameer</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Dharwesh</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Joel</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Elon</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>